--- a/biology/Botanique/Véronique_à_longues_feuilles/Véronique_à_longues_feuilles.xlsx
+++ b/biology/Botanique/Véronique_à_longues_feuilles/Véronique_à_longues_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_%C3%A0_longues_feuilles</t>
+          <t>Véronique_à_longues_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica longifolia
 La Véronique à longues feuilles (Veronica longifolia L.) est une espèce de plantes vivaces. Autrefois classées dans la famille des Scrophulariaceae, les véroniques (genre Veronica) appartiennent maintenant à celle des Plantaginaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_%C3%A0_longues_feuilles</t>
+          <t>Véronique_à_longues_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace appréciant les lieux humides, notamment les bords de cours d'eau, en plaine ou en moyenne montagne (jusqu'à 1 250 mètres). On la rencontre en Europe tempérée, mais elle est rare en Grande-Bretagne, s'arrête au nord en Scandinavie et semble quasiment inconnue dans les régions méditerranéennes. Floraison en juin-juillet.
-Morphologie générale et végétative
-Plante herbacée assez grande, formant des touffes, à tiges érigées pouvant dépasser un mètre. Les feuilles peuvent être opposées, mais sont souvent verticillées par groupes de trois ou quatre. Assez étroites et lancéolées, à court pétiole, elles ont un limbe profondément denté.
-Morphologie florale
-L'inflorescence se présente en racèmes (grappes) ayant l'apparence de longs épis étroits. Fleurs bleues à mauves, à quatre pétales et à deux étamines proéminentes.
-Fruit et graines
-Les fruits sont des capsules glabres en forme de cœur.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace appréciant les lieux humides, notamment les bords de cours d'eau, en plaine ou en moyenne montagne (jusqu'à 1 250 mètres). On la rencontre en Europe tempérée, mais elle est rare en Grande-Bretagne, s'arrête au nord en Scandinavie et semble quasiment inconnue dans les régions méditerranéennes. Floraison en juin-juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Véronique_à_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_%C3%A0_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée assez grande, formant des touffes, à tiges érigées pouvant dépasser un mètre. Les feuilles peuvent être opposées, mais sont souvent verticillées par groupes de trois ou quatre. Assez étroites et lancéolées, à court pétiole, elles ont un limbe profondément denté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_à_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_%C3%A0_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence se présente en racèmes (grappes) ayant l'apparence de longs épis étroits. Fleurs bleues à mauves, à quatre pétales et à deux étamines proéminentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_à_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_%C3%A0_longues_feuilles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules glabres en forme de cœur.
 </t>
         </is>
       </c>
